--- a/7rmartSupermarket/src/test/resources/7rmartTestdata.xlsx
+++ b/7rmartSupermarket/src/test/resources/7rmartTestdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anura\eclipse-workspace\7rmartSupermarket\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anura\git\7rmartsupermarketRepo\7rmartSupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D81CA8E-CF4C-4630-9D58-5537431E1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F591AC-8B70-41F9-A722-B325D3AE2702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{1C0BE936-F10D-4E4C-AC03-2EB18AD8F408}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{1C0BE936-F10D-4E4C-AC03-2EB18AD8F408}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -114,17 +114,23 @@
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
-    <t>WashingLiquid</t>
-  </si>
-  <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Expected Alert Message</t>
+  </si>
+  <si>
+    <t>Please enter litre price</t>
+  </si>
+  <si>
+    <t>Washing Liquid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +152,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -194,6 +205,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962AD5CD-9D7C-49A5-9B68-86829F2EB3AB}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -771,19 +788,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4FE22D-D881-43E3-B570-8A97893C762F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -792,23 +811,31 @@
       <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="10">
         <v>250</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>100</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
